--- a/artfynd/A 50208-2023 artfynd.xlsx
+++ b/artfynd/A 50208-2023 artfynd.xlsx
@@ -10217,7 +10217,7 @@
         <v>128998127</v>
       </c>
       <c r="B89" t="n">
-        <v>57727</v>
+        <v>57884</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>

--- a/artfynd/A 50208-2023 artfynd.xlsx
+++ b/artfynd/A 50208-2023 artfynd.xlsx
@@ -10317,7 +10317,7 @@
       </c>
       <c r="AX89" t="inlineStr">
         <is>
-          <t>Elin Kannerby, Alva Danielsson, Embla Berg, Henny My Lindqvist, Magdalena Nilsson</t>
+          <t>Elin Kannerby, Magdalena Nilsson, Henny My Lindqvist, Embla Berg, Alva Danielsson</t>
         </is>
       </c>
       <c r="AY89" t="inlineStr"/>

--- a/artfynd/A 50208-2023 artfynd.xlsx
+++ b/artfynd/A 50208-2023 artfynd.xlsx
@@ -10317,7 +10317,7 @@
       </c>
       <c r="AX89" t="inlineStr">
         <is>
-          <t>Elin Kannerby, Magdalena Nilsson, Henny My Lindqvist, Embla Berg, Alva Danielsson</t>
+          <t>Elin Kannerby, Alva Danielsson, Embla Berg, Henny My Lindqvist, Magdalena Nilsson</t>
         </is>
       </c>
       <c r="AY89" t="inlineStr"/>
